--- a/7.36/7.36.xlsx
+++ b/7.36/7.36.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Ejercicios capitulo 7\7.37\Trabajos_Capitulo_7\7.36\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="134">
   <si>
     <t xml:space="preserve">Ubicación </t>
   </si>
@@ -307,7 +307,127 @@
     <t>Carga el numero almacenado en 20</t>
   </si>
   <si>
-    <t>In</t>
+    <t>Carga el numero almacenado en la 26</t>
+  </si>
+  <si>
+    <t>Carga el numero almacenado en 26</t>
+  </si>
+  <si>
+    <t>Resta el valor almacenado en 26</t>
+  </si>
+  <si>
+    <t>Bifurcación 0(transferencia de control) a 21</t>
+  </si>
+  <si>
+    <t>Recibe un numero y lo almacena en 23</t>
+  </si>
+  <si>
+    <t>Imprime la localidad 24</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Mayor</t>
+  </si>
+  <si>
+    <t>Contador (inicializado en 1)</t>
+  </si>
+  <si>
+    <t>Uno(Inicializado en 1)(inicializado en 0)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>+1026</t>
+  </si>
+  <si>
+    <t>+2026</t>
+  </si>
+  <si>
+    <t>+2025</t>
+  </si>
+  <si>
+    <t>+3126</t>
+  </si>
+  <si>
+    <t>+4221</t>
+  </si>
+  <si>
+    <t>+1023</t>
+  </si>
+  <si>
+    <t>+3123</t>
+  </si>
+  <si>
+    <t>+4015</t>
+  </si>
+  <si>
+    <t>+2023</t>
+  </si>
+  <si>
+    <t>+2124</t>
+  </si>
+  <si>
+    <t>+3027</t>
+  </si>
+  <si>
+    <t>+4109</t>
+  </si>
+  <si>
+    <t>+1124</t>
+  </si>
+  <si>
+    <t>Lee un numero y lo almacena en el espacio de memoria 26</t>
+  </si>
+  <si>
+    <t>Bifurcación negativa al espacio de memoria 00</t>
+  </si>
+  <si>
+    <t>Carga el valor almacenado en el espacio de memoria 25</t>
+  </si>
+  <si>
+    <t>Carga el numero de el espacio de memoria 24</t>
+  </si>
+  <si>
+    <t>Resta el numero de e lespacio de memoria23</t>
+  </si>
+  <si>
+    <t>Se resta el contenido de el espacio de memoria 26</t>
+  </si>
+  <si>
+    <t>Se carga el contenido en el espacio de memoria 25</t>
+  </si>
+  <si>
+    <t>Suma el contenido de el espacio de memoria 27</t>
+  </si>
+  <si>
+    <t>Carga la variable de el espacio de memoria 25</t>
+  </si>
+  <si>
+    <t>Almacena el numero en el espacio de memoria 24</t>
+  </si>
+  <si>
+    <t>Carga el numero almacenado en el espacio de memoria 23</t>
+  </si>
+  <si>
+    <t>Bifurca positivo en el espacio de memoria 15</t>
+  </si>
+  <si>
+    <t>Bifurca negativo en el espacio de memoria24</t>
+  </si>
+  <si>
+    <t>Bifurcación 0 en el espacio de memoria 00</t>
   </si>
 </sst>
 </file>
@@ -476,7 +596,96 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -538,6 +747,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -545,31 +763,9 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -646,6 +842,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -653,18 +858,22 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -844,32 +1053,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="B2:D19" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="B2:D19" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="B2:D19">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Ubicación " dataDxfId="10"/>
-    <tableColumn id="2" name="Número " dataDxfId="9"/>
-    <tableColumn id="3" name="Instruccción " dataDxfId="8"/>
+    <tableColumn id="1" name="Ubicación " dataDxfId="16"/>
+    <tableColumn id="2" name="Número " dataDxfId="15"/>
+    <tableColumn id="3" name="Instruccción " dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla68" displayName="Tabla68" ref="B2:D27" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla68" displayName="Tabla68" ref="B2:D27" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="B2:D27">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
+    <tableColumn id="1" name="Ubicación " dataDxfId="9"/>
+    <tableColumn id="2" name="Número " dataDxfId="8"/>
+    <tableColumn id="3" name="Instruccción " dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla682" displayName="Tabla682" ref="B2:D30" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="B2:D30">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
     <tableColumn id="1" name="Ubicación " dataDxfId="2"/>
-    <tableColumn id="2" name="Número " dataDxfId="1"/>
-    <tableColumn id="3" name="Instruccción " dataDxfId="0"/>
+    <tableColumn id="2" name="Número " dataDxfId="0"/>
+    <tableColumn id="3" name="Instruccción " dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1368,7 +1593,7 @@
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B2" sqref="B2:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,20 +1904,346 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="71.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4300</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>